--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernet\Documents\GitHub\serra-indoor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9531F2-B3DB-480F-9E24-5E0F6F55849A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A430C766-DECC-4189-9B2D-87C5ED77199A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Progetto serra indoor - meetings</t>
   </si>
@@ -39,17 +39,20 @@
     <t>Aggiunta e modifica di ulteriori requisiti funzionali, requisiti non funzionali. Scenario Configurazione iniziale: configurazione USB e  registrazione utente.</t>
   </si>
   <si>
-    <t>29/09/2019 ?</t>
+    <t xml:space="preserve"> Modello 3D e Serbatoio intelligente. Si chiarisce il funzionamento dei sensori.</t>
   </si>
   <si>
-    <t>? chiarire questione modellazione 3D. Finire scenari e casi d'uso. ?</t>
+    <t>?06/10/2019?</t>
+  </si>
+  <si>
+    <t>Finire Scenari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +91,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -201,8 +212,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -219,6 +248,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,51 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -582,229 +594,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:M13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="1">
         <v>43709</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="1">
         <v>43723</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:13" ht="87.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="1">
         <v>43730</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="13" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:M15"/>
     <mergeCell ref="A12:C13"/>
     <mergeCell ref="D12:M13"/>
     <mergeCell ref="A1:M5"/>

--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernet\Documents\GitHub\serra-indoor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A430C766-DECC-4189-9B2D-87C5ED77199A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC075B54-A073-43DF-9795-FB851891A2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Progetto serra indoor - meetings</t>
   </si>
@@ -42,17 +42,20 @@
     <t xml:space="preserve"> Modello 3D e Serbatoio intelligente. Si chiarisce il funzionamento dei sensori.</t>
   </si>
   <si>
-    <t>?06/10/2019?</t>
+    <t>Visione laboratorio. Visualizzazione 3D e sensori per dimensioni. Aggiustamento configurazione iniziale.</t>
   </si>
   <si>
-    <t>Finire Scenari</t>
+    <t>Problema connessione wi-fi della black-box - Mock-up schermata iniziale - Finire scenari.</t>
+  </si>
+  <si>
+    <t>discussione nome prodotto, dominio, aspetto social e strategia di marketing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,14 +94,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -212,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,7 +308,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -594,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -816,13 +810,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
+      <c r="A14" s="1">
+        <v>43751</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -850,14 +844,77 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M16" s="34"/>
+      <c r="A16" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43765</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="D14:M15"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D12:M13"/>
+  <mergeCells count="15">
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="D18:M19"/>
     <mergeCell ref="A1:M5"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C9"/>
@@ -865,6 +922,12 @@
     <mergeCell ref="D6:M7"/>
     <mergeCell ref="D8:M9"/>
     <mergeCell ref="D10:M11"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="D16:M17"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="D14:M15"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernet\Documents\GitHub\serra-indoor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernet\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC075B54-A073-43DF-9795-FB851891A2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D0BDE-0063-4DDD-92ED-ABB6F12ECAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Progetto serra indoor - meetings</t>
   </si>
@@ -45,17 +45,20 @@
     <t>Visione laboratorio. Visualizzazione 3D e sensori per dimensioni. Aggiustamento configurazione iniziale.</t>
   </si>
   <si>
-    <t>Problema connessione wi-fi della black-box - Mock-up schermata iniziale - Finire scenari.</t>
+    <t>discussione nome prodotto, dominio, aspetto social e strategia di marketing</t>
   </si>
   <si>
-    <t>discussione nome prodotto, dominio, aspetto social e strategia di marketing</t>
+    <t>Creazione e associazione account alla blackbox, composizione della home, introduzione sistema di tracking</t>
+  </si>
+  <si>
+    <t>??????????????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +97,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -207,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -588,15 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -613,7 +625,7 @@
       <c r="L1" s="14"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -628,7 +640,7 @@
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -643,7 +655,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -658,7 +670,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -673,7 +685,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43709</v>
       </c>
@@ -692,7 +704,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -707,7 +719,7 @@
       <c r="L7" s="26"/>
       <c r="M7" s="27"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43723</v>
       </c>
@@ -726,7 +738,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
@@ -741,7 +753,7 @@
       <c r="L9" s="32"/>
       <c r="M9" s="33"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43730</v>
       </c>
@@ -760,7 +772,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:13" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -774,8 +786,9 @@
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43737</v>
       </c>
@@ -794,7 +807,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
@@ -809,7 +822,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43751</v>
       </c>
@@ -828,7 +841,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
@@ -843,14 +856,14 @@
       <c r="L15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43758</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -879,12 +892,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>43765</v>
+        <v>43779</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -911,8 +924,44 @@
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="D20:M21"/>
     <mergeCell ref="A18:C19"/>
     <mergeCell ref="D18:M19"/>
     <mergeCell ref="A1:M5"/>

--- a/meeting.xlsx
+++ b/meeting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernet\Documents\GitHub\serra-indoor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D0BDE-0063-4DDD-92ED-ABB6F12ECAEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6195275F-2F58-47A1-87BE-47AFFF789E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Progetto serra indoor - meetings</t>
   </si>
@@ -51,7 +51,10 @@
     <t>Creazione e associazione account alla blackbox, composizione della home, introduzione sistema di tracking</t>
   </si>
   <si>
-    <t>??????????????</t>
+    <t>Completa visione della funzionalità del software, specificando le funzionalità di ogni pannello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisione dell'intero progetto … </t>
   </si>
 </sst>
 </file>
@@ -220,6 +223,7 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,7 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -600,366 +603,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="D22" sqref="D22:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>43709</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="22" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>43723</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:15" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>43730</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:15" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="O11" s="34"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>43737</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:15" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>43751</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>43758</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>43779</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>43786</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="12"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43793</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="D12:M13"/>
+    <mergeCell ref="A22:C23"/>
+    <mergeCell ref="D22:M23"/>
     <mergeCell ref="A20:C21"/>
     <mergeCell ref="D20:M21"/>
     <mergeCell ref="A18:C19"/>
@@ -976,7 +1016,6 @@
     <mergeCell ref="A14:C15"/>
     <mergeCell ref="D14:M15"/>
     <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D12:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
